--- a/medicine/Sexualité et sexologie/Liste_de_gravure_idols_japonaises/Liste_de_gravure_idols_japonaises.xlsx
+++ b/medicine/Sexualité et sexologie/Liste_de_gravure_idols_japonaises/Liste_de_gravure_idols_japonaises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une gravure idol (グラビアアイドル, gurabia aidoru?, « mannequin de charme »), est au Japon une femme qui pose pour des revues dans des tenues sexy (bikinis, sous-vêtements). Cependant leurs photographies restent toujours érotiques sans être pornographiques, et elles ne posent jamais nue. 
@@ -540,14 +552,16 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yuzuki Aikawa
 Sayaka Ando
-Rin Aoki - mannequin Bakunyū[1] chakuero ; est devenue par la suite une actrice de film pornographique.
+Rin Aoki - mannequin Bakunyū chakuero ; est devenue par la suite une actrice de film pornographique.
 Yui Aragaki - devenue ensuite une actrice.
 Miki Ariyama
-Haruka Ayase - bakunyū[1]; devenue une actrice par la suite.
+Haruka Ayase - bakunyū; devenue une actrice par la suite.
 Asuka Kishi
 Amaki Jun - ex idol
 [Retour haut de page]
@@ -579,7 +593,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">[Retour haut de page]
 </t>
@@ -610,7 +626,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">[Retour haut de page]
 </t>
@@ -641,7 +659,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Leah Dizon - américaine de naissance.
 [Retour haut de page]
@@ -673,7 +693,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Erika Sawajiri
 [Retour haut de page]
@@ -705,9 +727,11 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuko (alias: Love ou Rabu) - mannequin bakunyū[1] chakuero. Devenue par la suite une actrice de films pornographiques.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fuko (alias: Love ou Rabu) - mannequin bakunyū chakuero. Devenue par la suite une actrice de films pornographiques.
 Aoi Fujinaga
 China Fukunaga
 [Retour haut de page]
@@ -739,17 +763,19 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Shoko Hamada
 Miri Hanai - mannequin Chakuero.
 Ourei Harada
-Moeka Haruhi[2]
+Moeka Haruhi
 Yui Hasumi
 Mizuho Hata
-Mizuki Horii - mannequin bakunyū[1].
+Mizuki Horii - mannequin bakunyū.
 Saori Horii
-Aki Hoshino - bakunyū[1]
+Aki Hoshino - bakunyū
 Hikaru Aoyama (Ne pas confondre avec l'actrice pornographique du même nom)
 Hinata Shizaki
 [Retour haut de page]
@@ -781,11 +807,13 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Yui Ichikawa - Devint actrice par la suite.
 Waka Inoue
-Saaya Irie (alias: Saaya)- bakunyū[1].
+Saaya Irie (alias: Saaya)- bakunyū.
 Miku Ishida
 Meguru Ishii
 Sayaka Isoyama
@@ -819,7 +847,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Junko Kaieda
 [Retour haut de page]
@@ -851,7 +881,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Reon Kadena (alias: Minamo Kusano) - A, par la suite, posé nue.
 Megumi Kagurazaka
@@ -859,7 +891,7 @@
 Saya Kazuki
 Aya Kiguchi
 Moe Kirimura
-Hitomi Kitamura - bakunyū[1].
+Hitomi Kitamura - bakunyū.
 Emi Kobayashi
 Mao Kobayashi (Ne pas confondre avec l'actrice/présentatrice du même nom)
 Yumi Kobayashi (Yumi Uno)
@@ -904,7 +936,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Leah Dizon
 Lyrian
@@ -937,16 +971,18 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yoko Matsugane - bakunyū[1]
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yoko Matsugane - bakunyū
 Aya Matsunaga
 Hatsune Matsushima
 Mami Matsuyama
 Megumi (née: Megumi Furuya et adopte par la suite le pseudonyme de Yamano)
 Mikuru
 Yoko Mitsuya
-Yuka Mizusawa - bakunyū[1]
+Yuka Mizusawa - bakunyū
 Mariko Mori
 Chisato Morishita
 Yuri Morishita
@@ -980,7 +1016,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Rina Nagasaki
 Shoko Nakagawa
@@ -988,7 +1026,7 @@
 Kasumi Nakamura
 Hanako Nanjô
 Jun Natsukawa
-Rio Natsume - bakunyū[1].
+Rio Natsume - bakunyū.
 Harumi Nemoto
 Rika Nishimura - Pose dévêtue.
 Chieko Noguchi
@@ -1021,7 +1059,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Yuko Ogura
 Mika Orihara
@@ -1029,7 +1069,7 @@
 Maiko Osawa
 Miwa Oshiro
 Sayuri Otomo
-Nana Ozaki (alias: Akiko Aimoto[3])
+Nana Ozaki (alias: Akiko Aimoto)
 [Retour haut de page]
 </t>
         </is>
@@ -1059,13 +1099,15 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Natsume Sano
 Nozomi Sasaki[Laquelle ?]
 Erika Sawajiri
 Saki Seto
-Risa Shimamoto - bakunyū[1].
+Risa Shimamoto - bakunyū.
 Yukina Shirakawa
 Yuriko Shiratori
 Yoshiko Suenaga
@@ -1101,7 +1143,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Satomi Takasugi
 Nozomi Takeuchi
@@ -1109,7 +1153,7 @@
 Erika Toda - Devenue ultérieurement actrice.
 Ami Tokito
 Kana Tsugihara
-Hitomi Tanaka, devenue ultérieurement actrice de films pornographiques[4]
+Hitomi Tanaka, devenue ultérieurement actrice de films pornographiques
 [Retour haut de page]
 </t>
         </is>
@@ -1139,7 +1183,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Ryo Uehara
 [Retour haut de page]
@@ -1171,7 +1217,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">[Retour haut de page]
 </t>
@@ -1202,7 +1250,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">[Retour haut de page]
 </t>
@@ -1233,7 +1283,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">[Retour haut de page]
 </t>
@@ -1264,11 +1316,13 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">Haruna Yabuki
 Charlotte Yabuki
-Erina Yamaguchi - bakunyū[1].
+Erina Yamaguchi - bakunyū.
 Erika Yamakawa
 Azusa Yamamoto
 Saori Yamamoto
@@ -1305,7 +1359,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1362,7 +1418,9 @@
           <t>XXe siècle</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">Yuko Aoki - Années 1990 ;
 Fumie Hosokawa - Années 1990 ;
